--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2547512.639097755</v>
+        <v>2546786.040226531</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.615330302</v>
+        <v>5851605.615330299</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.6793124476</v>
+        <v>864456.6793124477</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7074222.257499278</v>
+        <v>7074222.257499279</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
         <v>6.023344779862555</v>
@@ -667,7 +667,7 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>180.8319645619587</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -676,10 +676,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.441771996885163</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33883039991039</v>
+        <v>182.0038199253179</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>70.90884974000116</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -831,13 +831,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>29.69796801454456</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
@@ -910,13 +910,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>258.4936744650375</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>101.6302174766832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028016</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
         <v>119.2878878475953</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868346</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -1056,25 +1056,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>71.31157381942172</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>132.8644256605617</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>185.8612822324002</v>
       </c>
       <c r="D8" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>193.4795097704822</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>28.77201408958031</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>102.2350607402988</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D11" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019353</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
         <v>387.3211661995113</v>
@@ -1387,10 +1387,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U11" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967475</v>
       </c>
       <c r="V11" t="n">
         <v>316.8402373905461</v>
@@ -1435,7 +1435,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X11" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y11" t="n">
         <v>367.4283645950528</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
-        <v>44.65330832841697</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037907</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>22.67332828228623</v>
       </c>
       <c r="T13" t="n">
         <v>207.6543099067269</v>
@@ -1587,13 +1587,13 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C14" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
         <v>387.3211661995113</v>
@@ -1624,10 +1624,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332976064</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T14" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
         <v>224.990945096747</v>
@@ -1672,7 +1672,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X14" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y14" t="n">
         <v>367.4283645950528</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
-        <v>75.60603984991907</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501631</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>250.4712242529991</v>
+        <v>114.7036475792118</v>
       </c>
       <c r="V16" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
         <v>192.9893998987849</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C17" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D17" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E17" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
         <v>387.3211661995113</v>
@@ -1861,10 +1861,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T17" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U17" t="n">
         <v>224.990945096747</v>
@@ -1909,7 +1909,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X17" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y17" t="n">
         <v>367.4283645950528</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>96.3087310014409</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>103.7622202500679</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501631</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S19" t="n">
         <v>155.0289087125508</v>
@@ -2061,16 +2061,16 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C20" t="n">
-        <v>376.5244030535258</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D20" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E20" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F20" t="n">
         <v>387.3211661995113</v>
@@ -2098,10 +2098,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275031</v>
       </c>
       <c r="T20" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U20" t="n">
         <v>224.990945096747</v>
@@ -2146,7 +2146,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X20" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y20" t="n">
         <v>367.4283645950528</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>126.2210835114348</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875626</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125508</v>
+        <v>103.1885574966856</v>
       </c>
       <c r="T22" t="n">
         <v>207.6543099067269</v>
@@ -2298,13 +2298,13 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V22" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
         <v>192.9893998987849</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C23" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D23" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E23" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F23" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995121</v>
       </c>
       <c r="G23" t="n">
         <v>375.1420595397581</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722222</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T23" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U23" t="n">
         <v>224.990945096747</v>
@@ -2383,7 +2383,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X23" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y23" t="n">
         <v>367.4283645950528</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875626</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>120.9103651582974</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>155.0289087125508</v>
@@ -2535,16 +2535,16 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835352</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X25" t="n">
-        <v>14.01643745131542</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>380.6978716019343</v>
       </c>
       <c r="F26" t="n">
-        <v>387.3211661995121</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G26" t="n">
         <v>375.1420595397581</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>33.12209635668106</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
-        <v>166.5396278387351</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
         <v>206.4614817925755</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>49.56236697288436</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>33.12209635668106</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S34" t="n">
         <v>155.0289087125508</v>
@@ -3286,7 +3286,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>190.4854774862717</v>
       </c>
       <c r="U35" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V35" t="n">
         <v>316.8402373905461</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D37" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>61.04510745646664</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>105.0358710929981</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>155.0289087125508</v>
@@ -3480,13 +3480,13 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>241.6479458835352</v>
       </c>
       <c r="W37" t="n">
-        <v>246.7800261198763</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>206.4614817925754</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>376.6200261415078</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C38" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D38" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E38" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F38" t="n">
         <v>387.3211661995113</v>
@@ -3520,10 +3520,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H38" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T38" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U38" t="n">
         <v>224.990945096747</v>
@@ -3568,7 +3568,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X38" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y38" t="n">
         <v>367.4283645950528</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>40.15412884460839</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>155.0289087125508</v>
@@ -3717,19 +3717,19 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U40" t="n">
-        <v>216.6854325105169</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V40" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W40" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>354.8624710341908</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3793,7 +3793,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>174.1372571702753</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -3805,10 +3805,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>44.21277235333793</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.127201442763817</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>373.8316553010462</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3985,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -4039,7 +4039,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>376.8395006836604</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>223.4899753452292</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>27.77250173713467</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>563.0439654718656</v>
+        <v>959.9594387811061</v>
       </c>
       <c r="C2" t="n">
-        <v>556.9597788255397</v>
+        <v>953.8752521347802</v>
       </c>
       <c r="D2" t="n">
-        <v>556.5362529590043</v>
+        <v>953.4517262682448</v>
       </c>
       <c r="E2" t="n">
-        <v>546.236441516305</v>
+        <v>770.7931762056602</v>
       </c>
       <c r="F2" t="n">
-        <v>529.2464335103966</v>
+        <v>753.8031681997518</v>
       </c>
       <c r="G2" t="n">
-        <v>120.5181494032287</v>
+        <v>345.074884092584</v>
       </c>
       <c r="H2" t="n">
-        <v>120.5181494032287</v>
+        <v>34.166386720302</v>
       </c>
       <c r="I2" t="n">
-        <v>34.1663867203019</v>
+        <v>34.166386720302</v>
       </c>
       <c r="J2" t="n">
-        <v>34.1663867203019</v>
+        <v>288.3518581880563</v>
       </c>
       <c r="K2" t="n">
-        <v>78.17457653903</v>
+        <v>711.1608938517936</v>
       </c>
       <c r="L2" t="n">
-        <v>78.17457653903</v>
+        <v>1133.969929515531</v>
       </c>
       <c r="M2" t="n">
-        <v>78.17457653903</v>
+        <v>1133.969929515531</v>
       </c>
       <c r="N2" t="n">
-        <v>500.983612202766</v>
+        <v>1133.969929515531</v>
       </c>
       <c r="O2" t="n">
-        <v>923.792647866502</v>
+        <v>1133.969929515531</v>
       </c>
       <c r="P2" t="n">
-        <v>1346.601683530238</v>
+        <v>1346.601683530243</v>
       </c>
       <c r="Q2" t="n">
-        <v>1667.76269032553</v>
+        <v>1667.762690325535</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.319336015095</v>
+        <v>1708.3193360151</v>
       </c>
       <c r="S2" t="n">
-        <v>1708.319336015095</v>
+        <v>1573.038260809201</v>
       </c>
       <c r="T2" t="n">
-        <v>1708.319336015095</v>
+        <v>1573.038260809201</v>
       </c>
       <c r="U2" t="n">
-        <v>1706.863000664706</v>
+        <v>1315.977769068711</v>
       </c>
       <c r="V2" t="n">
-        <v>1357.025446001187</v>
+        <v>966.1402144051915</v>
       </c>
       <c r="W2" t="n">
-        <v>973.265145136355</v>
+        <v>966.1402144051915</v>
       </c>
       <c r="X2" t="n">
-        <v>973.265145136355</v>
+        <v>966.1402144051915</v>
       </c>
       <c r="Y2" t="n">
-        <v>973.265145136355</v>
+        <v>966.1402144051915</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>712.9972286068362</v>
+        <v>621.5014242627926</v>
       </c>
       <c r="C3" t="n">
-        <v>579.0021573557819</v>
+        <v>487.5063530117383</v>
       </c>
       <c r="D3" t="n">
-        <v>462.1049995751744</v>
+        <v>370.6091952311307</v>
       </c>
       <c r="E3" t="n">
-        <v>341.6121835675024</v>
+        <v>250.1163792234587</v>
       </c>
       <c r="F3" t="n">
-        <v>232.652303750007</v>
+        <v>141.1564994059633</v>
       </c>
       <c r="G3" t="n">
-        <v>125.6621910643457</v>
+        <v>34.166386720302</v>
       </c>
       <c r="H3" t="n">
-        <v>54.91497810006173</v>
+        <v>34.166386720302</v>
       </c>
       <c r="I3" t="n">
-        <v>34.1663867203019</v>
+        <v>34.166386720302</v>
       </c>
       <c r="J3" t="n">
-        <v>34.1663867203019</v>
+        <v>226.9792442829352</v>
       </c>
       <c r="K3" t="n">
-        <v>456.9754223840379</v>
+        <v>649.7882799466724</v>
       </c>
       <c r="L3" t="n">
-        <v>512.8568000036394</v>
+        <v>862.7012646876256</v>
       </c>
       <c r="M3" t="n">
-        <v>935.6658356673754</v>
+        <v>862.7012646876256</v>
       </c>
       <c r="N3" t="n">
-        <v>935.6658356673754</v>
+        <v>1285.510300351363</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.474871331111</v>
+        <v>1285.510300351363</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.474871331111</v>
+        <v>1708.3193360151</v>
       </c>
       <c r="Q3" t="n">
-        <v>1708.319336015095</v>
+        <v>1708.3193360151</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.319336015095</v>
+        <v>1708.3193360151</v>
       </c>
       <c r="S3" t="n">
-        <v>1600.329326129404</v>
+        <v>1708.3193360151</v>
       </c>
       <c r="T3" t="n">
-        <v>1440.987462316412</v>
+        <v>1708.3193360151</v>
       </c>
       <c r="U3" t="n">
-        <v>1402.261371003371</v>
+        <v>1524.477093666294</v>
       </c>
       <c r="V3" t="n">
-        <v>1402.261371003371</v>
+        <v>1310.765566659328</v>
       </c>
       <c r="W3" t="n">
-        <v>1189.0282027397</v>
+        <v>1097.532398395656</v>
       </c>
       <c r="X3" t="n">
-        <v>1012.702220878593</v>
+        <v>921.2064165345492</v>
       </c>
       <c r="Y3" t="n">
-        <v>853.3002612424228</v>
+        <v>761.8044568983793</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>580.9408836834104</v>
+        <v>937.6662725800129</v>
       </c>
       <c r="C4" t="n">
-        <v>580.9408836834104</v>
+        <v>937.6662725800129</v>
       </c>
       <c r="D4" t="n">
-        <v>509.3157829359345</v>
+        <v>937.6662725800129</v>
       </c>
       <c r="E4" t="n">
-        <v>348.404967804254</v>
+        <v>776.7554574483323</v>
       </c>
       <c r="F4" t="n">
-        <v>183.7738419148453</v>
+        <v>612.1243315589236</v>
       </c>
       <c r="G4" t="n">
-        <v>183.7738419148453</v>
+        <v>444.873940484467</v>
       </c>
       <c r="H4" t="n">
-        <v>34.1663867203019</v>
+        <v>295.2664852899236</v>
       </c>
       <c r="I4" t="n">
-        <v>34.1663867203019</v>
+        <v>178.9204393942497</v>
       </c>
       <c r="J4" t="n">
-        <v>48.24893612551242</v>
+        <v>193.0029887994602</v>
       </c>
       <c r="K4" t="n">
-        <v>202.8012638477504</v>
+        <v>347.5553165216982</v>
       </c>
       <c r="L4" t="n">
-        <v>462.6983641278109</v>
+        <v>607.4524168017588</v>
       </c>
       <c r="M4" t="n">
-        <v>751.9624205683042</v>
+        <v>896.7164732422521</v>
       </c>
       <c r="N4" t="n">
-        <v>1032.801202962554</v>
+        <v>1177.555255636502</v>
       </c>
       <c r="O4" t="n">
-        <v>1292.361813289029</v>
+        <v>1437.115865962977</v>
       </c>
       <c r="P4" t="n">
-        <v>1498.037253538641</v>
+        <v>1642.791306212589</v>
       </c>
       <c r="Q4" t="n">
-        <v>1563.565283341152</v>
+        <v>1708.3193360151</v>
       </c>
       <c r="R4" t="n">
-        <v>1563.565283341152</v>
+        <v>1678.321388525661</v>
       </c>
       <c r="S4" t="n">
-        <v>1377.173515221062</v>
+        <v>1678.321388525661</v>
       </c>
       <c r="T4" t="n">
-        <v>1137.624776197764</v>
+        <v>1678.321388525661</v>
       </c>
       <c r="U4" t="n">
-        <v>854.8266287438885</v>
+        <v>1678.321388525661</v>
       </c>
       <c r="V4" t="n">
-        <v>580.9408836834104</v>
+        <v>1404.435643465183</v>
       </c>
       <c r="W4" t="n">
-        <v>580.9408836834104</v>
+        <v>1125.365978974057</v>
       </c>
       <c r="X4" t="n">
-        <v>580.9408836834104</v>
+        <v>1125.365978974057</v>
       </c>
       <c r="Y4" t="n">
-        <v>580.9408836834104</v>
+        <v>1125.365978974057</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>484.2909016982387</v>
+        <v>733.9275993281359</v>
       </c>
       <c r="C5" t="n">
-        <v>74.16631101150881</v>
+        <v>727.84341268181</v>
       </c>
       <c r="D5" t="n">
-        <v>73.74278514497341</v>
+        <v>727.4198868152746</v>
       </c>
       <c r="E5" t="n">
-        <v>63.44297370227418</v>
+        <v>717.1200753725753</v>
       </c>
       <c r="F5" t="n">
-        <v>46.45296569636579</v>
+        <v>700.1300673666669</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>537.7254774811266</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1054.568412147452</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1571.411346813777</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O5" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4600,19 +4600,19 @@
         <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1730.766722221062</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>1380.929167557543</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W5" t="n">
-        <v>997.1688666927112</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X5" t="n">
-        <v>997.1688666927112</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y5" t="n">
-        <v>894.5120813627282</v>
+        <v>740.1083749522213</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
         <v>469.7036984844746</v>
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>158.3214934345131</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>158.3214934345131</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>675.1644281008383</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1192.007362767164</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767164</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>278.4281042659014</v>
+        <v>970.188120799058</v>
       </c>
       <c r="C7" t="n">
-        <v>278.4281042659014</v>
+        <v>799.0947483607745</v>
       </c>
       <c r="D7" t="n">
-        <v>278.4281042659014</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="E7" t="n">
-        <v>206.3962115190108</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1436.957491684228</v>
       </c>
       <c r="T7" t="n">
-        <v>1485.891263925851</v>
+        <v>1436.957491684228</v>
       </c>
       <c r="U7" t="n">
-        <v>1203.093116471976</v>
+        <v>1436.957491684228</v>
       </c>
       <c r="V7" t="n">
-        <v>929.2073714114977</v>
+        <v>1436.957491684228</v>
       </c>
       <c r="W7" t="n">
-        <v>929.2073714114977</v>
+        <v>1157.887827193102</v>
       </c>
       <c r="X7" t="n">
-        <v>690.8635092711811</v>
+        <v>1157.887827193102</v>
       </c>
       <c r="Y7" t="n">
-        <v>466.1278106599458</v>
+        <v>1157.887827193102</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>888.3313057386429</v>
+        <v>261.9049799331252</v>
       </c>
       <c r="C8" t="n">
-        <v>882.247119092317</v>
+        <v>74.16631101150881</v>
       </c>
       <c r="D8" t="n">
-        <v>881.8235932257816</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E8" t="n">
-        <v>467.4833777426783</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F8" t="n">
         <v>46.45296569636579</v>
@@ -4804,22 +4804,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>216.5644706858345</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>216.5644706858345</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
         <v>216.5644706858345</v>
       </c>
       <c r="M8" t="n">
-        <v>216.5644706858345</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N8" t="n">
-        <v>733.4074053521598</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O8" t="n">
-        <v>1250.250340018485</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P8" t="n">
         <v>1767.09327468481</v>
@@ -4843,13 +4843,13 @@
         <v>1473.706230480572</v>
       </c>
       <c r="W8" t="n">
-        <v>1089.945929615741</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X8" t="n">
-        <v>894.5120813627283</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="Y8" t="n">
-        <v>894.5120813627283</v>
+        <v>672.1261595976147</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>52.35970185319792</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>508.1659581184966</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>1025.008892784822</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784822</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N9" t="n">
-        <v>1025.008892784822</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.1714896368677</v>
+        <v>970.188120799058</v>
       </c>
       <c r="C10" t="n">
-        <v>238.0781171985842</v>
+        <v>799.0947483607745</v>
       </c>
       <c r="D10" t="n">
-        <v>209.0154767040586</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="E10" t="n">
-        <v>209.0154767040586</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>209.0154767040586</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4989,25 +4989,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U10" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V10" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W10" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X10" t="n">
-        <v>821.6068946421474</v>
+        <v>1382.623525804338</v>
       </c>
       <c r="Y10" t="n">
-        <v>596.8711960309121</v>
+        <v>1157.887827193102</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.8415093489448</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G11" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H11" t="n">
         <v>149.7985495388648</v>
@@ -5044,7 +5044,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5074,19 +5074,19 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U11" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V11" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>286.056555253256</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>705.4904009953962</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M12" t="n">
-        <v>1548.467481689963</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N12" t="n">
-        <v>1548.467481689963</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O12" t="n">
-        <v>1548.467481689963</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>479.54194401308</v>
+        <v>719.354412734383</v>
       </c>
       <c r="C13" t="n">
-        <v>434.4375921661941</v>
+        <v>578.0579511307843</v>
       </c>
       <c r="D13" t="n">
-        <v>434.4375921661941</v>
+        <v>448.3602172883792</v>
       </c>
       <c r="E13" t="n">
-        <v>434.4375921661941</v>
+        <v>317.2463129913835</v>
       </c>
       <c r="F13" t="n">
-        <v>299.6033771114703</v>
+        <v>317.2463129913835</v>
       </c>
       <c r="G13" t="n">
-        <v>299.6033771114703</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H13" t="n">
         <v>179.7928327516118</v>
@@ -5199,22 +5199,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L13" t="n">
         <v>609.3875320253558</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N13" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O13" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P13" t="n">
         <v>1761.542230672484</v>
@@ -5223,28 +5223,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.20354800875</v>
+        <v>1833.371860983781</v>
       </c>
       <c r="T13" t="n">
-        <v>1434.451719820137</v>
+        <v>1623.620032795168</v>
       </c>
       <c r="U13" t="n">
-        <v>1181.450483200946</v>
+        <v>1370.618796175977</v>
       </c>
       <c r="V13" t="n">
-        <v>937.3616489751524</v>
+        <v>1126.529961950183</v>
       </c>
       <c r="W13" t="n">
-        <v>688.0888953187117</v>
+        <v>877.2572082937426</v>
       </c>
       <c r="X13" t="n">
-        <v>479.54194401308</v>
+        <v>877.2572082937426</v>
       </c>
       <c r="Y13" t="n">
-        <v>479.54194401308</v>
+        <v>877.2572082937426</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E14" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>809.8415093489459</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G14" t="n">
-        <v>430.910136076463</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388659</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5293,7 +5293,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P14" t="n">
         <v>4300.467232046283</v>
@@ -5305,22 +5305,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T14" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U14" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V14" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y14" t="n">
         <v>2721.037282963096</v>
@@ -5360,16 +5360,16 @@
         <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>355.6459363114127</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L15" t="n">
-        <v>355.6459363114127</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.623017005979</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N15" t="n">
-        <v>1198.623017005979</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="O15" t="n">
         <v>1198.623017005979</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>375.9731143336107</v>
+        <v>630.1860124883461</v>
       </c>
       <c r="C16" t="n">
-        <v>375.9731143336107</v>
+        <v>488.8895508847475</v>
       </c>
       <c r="D16" t="n">
-        <v>375.9731143336107</v>
+        <v>359.1918170423423</v>
       </c>
       <c r="E16" t="n">
-        <v>375.9731143336107</v>
+        <v>228.0779127453467</v>
       </c>
       <c r="F16" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L16" t="n">
         <v>609.3875320253558</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N16" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O16" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P16" t="n">
         <v>1761.542230672484</v>
@@ -5463,25 +5463,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S16" t="n">
-        <v>1644.20354800875</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T16" t="n">
-        <v>1434.451719820137</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="U16" t="n">
-        <v>1181.450483200946</v>
+        <v>1684.936135012122</v>
       </c>
       <c r="V16" t="n">
-        <v>937.3616489751524</v>
+        <v>1440.847300786329</v>
       </c>
       <c r="W16" t="n">
-        <v>937.3616489751524</v>
+        <v>1191.574547129888</v>
       </c>
       <c r="X16" t="n">
-        <v>728.8146976695207</v>
+        <v>983.0275958242562</v>
       </c>
       <c r="Y16" t="n">
-        <v>533.8759098929703</v>
+        <v>788.0888080477057</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489449</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764623</v>
       </c>
       <c r="H17" t="n">
         <v>149.7985495388648</v>
@@ -5545,13 +5545,13 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T17" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V17" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W17" t="n">
         <v>3463.023532176683</v>
@@ -5560,7 +5560,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>1402.950983437843</v>
+        <v>592.7987223006619</v>
       </c>
       <c r="M18" t="n">
-        <v>2110.173374178493</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N18" t="n">
-        <v>2110.173374178493</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>321.6391484537204</v>
+        <v>284.6031562365289</v>
       </c>
       <c r="C19" t="n">
-        <v>321.6391484537204</v>
+        <v>284.6031562365289</v>
       </c>
       <c r="D19" t="n">
-        <v>224.3576019876185</v>
+        <v>284.6031562365289</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>284.6031562365289</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>284.6031562365289</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>284.6031562365289</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L19" t="n">
         <v>609.3875320253558</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N19" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O19" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P19" t="n">
         <v>1761.542230672484</v>
@@ -5700,25 +5700,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S19" t="n">
-        <v>1644.20354800875</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T19" t="n">
-        <v>1434.451719820137</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U19" t="n">
-        <v>1181.450483200946</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V19" t="n">
-        <v>937.3616489751524</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W19" t="n">
-        <v>688.0888953187117</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X19" t="n">
-        <v>479.54194401308</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y19" t="n">
-        <v>479.54194401308</v>
+        <v>284.6031562365289</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C20" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D20" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E20" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489448</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388648</v>
@@ -5752,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T20" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V20" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>213.3947382540484</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
         <v>1760.328909494509</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>365.6540635912171</v>
+        <v>234.5401592942214</v>
       </c>
       <c r="C22" t="n">
-        <v>224.3576019876185</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>224.3576019876185</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
         <v>93.2436976906228</v>
@@ -5910,22 +5910,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K22" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L22" t="n">
         <v>609.3875320253558</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N22" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O22" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P22" t="n">
         <v>1761.542230672484</v>
@@ -5934,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>1644.20354800875</v>
+        <v>1752.043346625801</v>
       </c>
       <c r="T22" t="n">
-        <v>1434.451719820137</v>
+        <v>1542.291518437188</v>
       </c>
       <c r="U22" t="n">
-        <v>1181.450483200946</v>
+        <v>1289.290281817997</v>
       </c>
       <c r="V22" t="n">
-        <v>937.3616489751524</v>
+        <v>1045.201447592204</v>
       </c>
       <c r="W22" t="n">
-        <v>688.0888953187117</v>
+        <v>795.9286939357632</v>
       </c>
       <c r="X22" t="n">
-        <v>688.0888953187117</v>
+        <v>587.3817426301315</v>
       </c>
       <c r="Y22" t="n">
-        <v>493.1501075421613</v>
+        <v>392.442954853581</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489459</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G23" t="n">
-        <v>430.910136076463</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -5989,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>844.5103911440685</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>844.5103911440685</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>1548.467481689963</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
         <v>2110.173374178493</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>321.0892943552104</v>
+        <v>621.2037901694287</v>
       </c>
       <c r="C25" t="n">
-        <v>179.7928327516118</v>
+        <v>479.90732856583</v>
       </c>
       <c r="D25" t="n">
-        <v>179.7928327516118</v>
+        <v>350.2095947234249</v>
       </c>
       <c r="E25" t="n">
-        <v>179.7928327516118</v>
+        <v>350.2095947234249</v>
       </c>
       <c r="F25" t="n">
-        <v>179.7928327516118</v>
+        <v>215.375379668701</v>
       </c>
       <c r="G25" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K25" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L25" t="n">
         <v>609.3875320253558</v>
       </c>
       <c r="M25" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N25" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O25" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P25" t="n">
         <v>1761.542230672484</v>
@@ -6171,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T25" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.450483200946</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V25" t="n">
-        <v>937.3616489751524</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="W25" t="n">
-        <v>688.0888953187117</v>
+        <v>987.65353703442</v>
       </c>
       <c r="X25" t="n">
-        <v>673.9308776911204</v>
+        <v>779.1065857287882</v>
       </c>
       <c r="Y25" t="n">
-        <v>478.99208991457</v>
+        <v>779.1065857287882</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D26" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G26" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764622</v>
       </c>
       <c r="H26" t="n">
         <v>149.7985495388648</v>
@@ -6226,10 +6226,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6241,7 +6241,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P26" t="n">
         <v>4300.467232046283</v>
@@ -6253,10 +6253,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U26" t="n">
         <v>4137.027566035665</v>
@@ -6311,22 +6311,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N27" t="n">
-        <v>936.2207783851894</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O27" t="n">
-        <v>1640.177868931084</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>365.6540635912171</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="C28" t="n">
-        <v>224.3576019876185</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="D28" t="n">
-        <v>224.3576019876185</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6423,13 +6423,13 @@
         <v>937.361648975152</v>
       </c>
       <c r="W28" t="n">
-        <v>769.1398026733993</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X28" t="n">
-        <v>560.5928513677676</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y28" t="n">
-        <v>365.6540635912171</v>
+        <v>284.6031562365289</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D29" t="n">
         <v>1585.618315208991</v>
@@ -6451,10 +6451,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G29" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764622</v>
       </c>
       <c r="H29" t="n">
         <v>149.7985495388648</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159926</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.29114694147</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035666</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176685</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180322</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>324.9649248943615</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>324.9649248943615</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M30" t="n">
-        <v>324.9649248943615</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>284.6031562365289</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="C31" t="n">
-        <v>143.3066946329302</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="D31" t="n">
-        <v>143.3066946329302</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="E31" t="n">
-        <v>143.3066946329302</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="F31" t="n">
-        <v>143.3066946329302</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D32" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489446</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9101360764616</v>
+        <v>430.9101360764622</v>
       </c>
       <c r="H32" t="n">
         <v>149.7985495388648</v>
@@ -6733,19 +6733,19 @@
         <v>4364.291146941468</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176682</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X32" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y32" t="n">
-        <v>2721.037282963094</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="33">
@@ -6782,25 +6782,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>917.3518287999427</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M33" t="n">
-        <v>1760.328909494509</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N33" t="n">
-        <v>1760.328909494509</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O33" t="n">
-        <v>1760.328909494509</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P33" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C35" t="n">
         <v>1960.285334281245</v>
       </c>
       <c r="D35" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.61831520899</v>
       </c>
       <c r="E35" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489449</v>
+        <v>809.8415093489446</v>
       </c>
       <c r="G35" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6952,7 +6952,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O35" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P35" t="n">
         <v>4300.467232046283</v>
@@ -6970,19 +6970,19 @@
         <v>4364.291146941468</v>
       </c>
       <c r="U35" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V35" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206828</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X35" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180319</v>
       </c>
       <c r="Y35" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963094</v>
       </c>
     </row>
     <row r="36">
@@ -7016,19 +7016,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>494.6659264600851</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>494.6659264600851</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>494.6659264600851</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
         <v>1198.623017005979</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>284.6031562365296</v>
+        <v>684.4501584427173</v>
       </c>
       <c r="C37" t="n">
-        <v>284.6031562365296</v>
+        <v>543.1536968391188</v>
       </c>
       <c r="D37" t="n">
-        <v>154.9054223941245</v>
+        <v>543.1536968391188</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>543.1536968391188</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>437.0568573512419</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114702</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7101,10 +7101,10 @@
         <v>320.2864794362206</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M37" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N37" t="n">
         <v>1237.898275478249</v>
@@ -7119,28 +7119,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R37" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S37" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T37" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U37" t="n">
-        <v>1181.450483200946</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="V37" t="n">
-        <v>937.3616489751524</v>
+        <v>1245.838693084259</v>
       </c>
       <c r="W37" t="n">
-        <v>688.0888953187117</v>
+        <v>1245.838693084259</v>
       </c>
       <c r="X37" t="n">
-        <v>479.54194401308</v>
+        <v>1037.291741778627</v>
       </c>
       <c r="Y37" t="n">
-        <v>284.6031562365296</v>
+        <v>842.3529540020769</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C38" t="n">
         <v>1960.285334281245</v>
@@ -7165,7 +7165,7 @@
         <v>809.8415093489448</v>
       </c>
       <c r="G38" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H38" t="n">
         <v>149.7985495388648</v>
@@ -7174,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7189,7 +7189,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O38" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P38" t="n">
         <v>4300.467232046283</v>
@@ -7204,22 +7204,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V38" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>286.056555253256</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K39" t="n">
-        <v>286.056555253256</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L39" t="n">
-        <v>355.6459363114127</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>369.3743743489453</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="C40" t="n">
-        <v>228.0779127453467</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="D40" t="n">
-        <v>228.0779127453467</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="E40" t="n">
-        <v>228.0779127453467</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K40" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L40" t="n">
         <v>609.3875320253558</v>
       </c>
       <c r="M40" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N40" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O40" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P40" t="n">
         <v>1761.542230672484</v>
@@ -7356,28 +7356,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S40" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T40" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U40" t="n">
-        <v>1215.577545567089</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V40" t="n">
-        <v>971.4887113412959</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W40" t="n">
-        <v>722.2159576848552</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="X40" t="n">
-        <v>722.2159576848552</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="Y40" t="n">
-        <v>527.2771699083048</v>
+        <v>743.5647028086266</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2549.191389976085</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D41" t="n">
         <v>1734.602869382415</v>
@@ -7441,22 +7441,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4351.007589961326</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4093.947098220835</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>3744.109543557316</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>3360.349242692484</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2959.412569640574</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>182.7137268369972</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M42" t="n">
-        <v>182.7137268369972</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N42" t="n">
-        <v>1056.371818948615</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4063.35771140577</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C43" t="n">
-        <v>3892.264338967486</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>3732.769694290396</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4475.79311641105</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>4475.79311641105</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>4475.79311641105</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>4475.79311641105</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>4475.79311641105</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>4475.79311641105</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y43" t="n">
-        <v>4251.057417799814</v>
+        <v>308.996436142379</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2134.851174492981</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>1724.726583806251</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.262653899312</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7736,16 +7736,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>93.2436976906228</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N45" t="n">
-        <v>524.2254458227151</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O45" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
         <v>2139.732893541123</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3416.38242488042</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>3416.38242488042</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>3416.38242488042</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>3416.38242488042</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>3416.38242488042</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>4337.363427183242</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>4054.565279729366</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>4054.565279729366</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>4054.565279729366</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>3828.8178298857</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y46" t="n">
-        <v>3604.082131274464</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>133.5891066618314</v>
+        <v>516.2162236769921</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>522.5652320666198</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>519.992124760393</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>520.2696096295568</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>520.7291972846579</v>
+        <v>308.4289127906945</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8057,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9056167883891</v>
+        <v>482.9056167883904</v>
       </c>
       <c r="L3" t="n">
-        <v>112.5603597902445</v>
+        <v>271.1781447613067</v>
       </c>
       <c r="M3" t="n">
-        <v>484.6441177421912</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>480.273227397525</v>
       </c>
       <c r="O3" t="n">
-        <v>484.8313130037737</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>481.3394690065787</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>590.1064824525349</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,22 +8294,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>173.5595280421012</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>67.6779873391382</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
@@ -8318,7 +8318,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>249.8886267436438</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>272.0504334731806</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
         <v>614.9758611266449</v>
@@ -8470,7 +8470,7 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8531,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>62.07087134908675</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>394.6973592394729</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8692,7 +8692,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>479.785075065536</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>75.97815626606008</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>126.1180868837635</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
@@ -9020,7 +9020,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>128.0437830991482</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
@@ -9178,13 +9178,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P17" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9242,22 +9242,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>560.7155587704844</v>
       </c>
       <c r="M18" t="n">
-        <v>771.9303349915991</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9266,7 +9266,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9479,25 +9479,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>177.4792112486527</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
         <v>632.7318453389136</v>
@@ -9661,7 +9661,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
-        <v>148.6536994294856</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9959,7 +9959,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
         <v>909.0562844399999</v>
@@ -9968,16 +9968,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P27" t="n">
-        <v>529.0025695961465</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,16 +10193,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>289.8876284449575</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
@@ -10214,7 +10214,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,28 +10430,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>428.1366196128907</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>174.1409094511112</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N35" t="n">
-        <v>853.7011964521931</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O35" t="n">
         <v>743.321953824879</v>
@@ -10664,13 +10664,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>461.5915225678817</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -10679,7 +10679,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
@@ -10834,7 +10834,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N38" t="n">
-        <v>853.7011964521931</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O38" t="n">
         <v>743.321953824879</v>
@@ -10901,16 +10901,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>126.4068279099972</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
@@ -10925,7 +10925,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,28 +11141,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>146.4882906253687</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11384,19 +11384,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N45" t="n">
-        <v>488.5284925170755</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>95.23018865914567</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>132.3555804302646</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y13" t="n">
         <v>192.9893998987849</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>57.87983305425756</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>135.7675766737873</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198763</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875626</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
-        <v>32.09202550254015</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>14.85021866619201</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.10268409233116</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
         <v>136.078945437374</v>
@@ -24147,7 +24147,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037907</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>51.84035121586521</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>15.16858027907665</v>
       </c>
       <c r="H25" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>192.44504434126</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
         <v>133.4858729041767</v>
@@ -24621,7 +24621,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>85.6836437103791</v>
+        <v>52.56154735369804</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>80.24039828114127</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
         <v>128.4007565039811</v>
@@ -24852,13 +24852,13 @@
         <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
-        <v>86.51657846448967</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>85.6836437103791</v>
+        <v>52.56154735369804</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037912</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E37" t="n">
-        <v>68.75765779755906</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041766</v>
+        <v>28.4500018111785</v>
       </c>
       <c r="G37" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D40" t="n">
-        <v>128.4007565039811</v>
+        <v>88.24662765937269</v>
       </c>
       <c r="E40" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>33.78579174248216</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>45.55681957367926</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>45.84716204233442</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>141.609936976766</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>157.1745055375999</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>32.28731256679839</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>3.083197172522716</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>12.47044817368422</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>194.7158398879883</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>589301.7856617215</v>
+        <v>589301.7856617216</v>
       </c>
     </row>
     <row r="3">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>622936.1683507608</v>
+        <v>622936.1683507606</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>581255.8345115043</v>
+        <v>581255.8345115045</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>618953.0935233365</v>
+        <v>618953.0935233369</v>
       </c>
       <c r="C2" t="n">
-        <v>618953.0935233363</v>
+        <v>618953.0935233366</v>
       </c>
       <c r="D2" t="n">
-        <v>618953.0935233367</v>
+        <v>618953.0935233366</v>
       </c>
       <c r="E2" t="n">
         <v>599827.8647507951</v>
       </c>
       <c r="F2" t="n">
-        <v>599827.8647507952</v>
+        <v>599827.8647507947</v>
       </c>
       <c r="G2" t="n">
+        <v>599827.8647507948</v>
+      </c>
+      <c r="H2" t="n">
+        <v>599827.8647507948</v>
+      </c>
+      <c r="I2" t="n">
+        <v>599827.8647507948</v>
+      </c>
+      <c r="J2" t="n">
         <v>599827.8647507949</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>599827.8647507947</v>
-      </c>
-      <c r="I2" t="n">
-        <v>599827.8647507947</v>
-      </c>
-      <c r="J2" t="n">
-        <v>599827.8647507951</v>
-      </c>
-      <c r="K2" t="n">
-        <v>599827.8647507949</v>
       </c>
       <c r="L2" t="n">
         <v>599827.8647507949</v>
       </c>
       <c r="M2" t="n">
-        <v>599827.8647507948</v>
+        <v>599827.8647507947</v>
       </c>
       <c r="N2" t="n">
         <v>599827.8647507949</v>
       </c>
       <c r="O2" t="n">
-        <v>550332.4683166783</v>
+        <v>550332.4683166784</v>
       </c>
       <c r="P2" t="n">
-        <v>550332.4683166783</v>
+        <v>550332.4683166785</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108467</v>
+        <v>143124.2752108471</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.46086668813</v>
+        <v>30686.46086668772</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>135342.0294691538</v>
+        <v>135342.0294691541</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.7742611095</v>
+        <v>24445.77426110918</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248795.5093150309</v>
+        <v>248795.5093150306</v>
       </c>
       <c r="C4" t="n">
         <v>232373.271303389</v>
@@ -26426,10 +26426,10 @@
         <v>232373.2713033891</v>
       </c>
       <c r="E4" t="n">
-        <v>148366.1238023683</v>
+        <v>148366.1238023682</v>
       </c>
       <c r="F4" t="n">
-        <v>148366.1238023683</v>
+        <v>148366.1238023682</v>
       </c>
       <c r="G4" t="n">
         <v>148366.1238023682</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742944</v>
+        <v>59594.05390742952</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26478,19 +26478,19 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="F5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="G5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="H5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="I5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
         <v>73345.15677686482</v>
@@ -26505,7 +26505,7 @@
         <v>73345.15677686484</v>
       </c>
       <c r="N5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="O5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167439.2550900296</v>
+        <v>167439.2550900297</v>
       </c>
       <c r="C6" t="n">
-        <v>290524.2962747616</v>
+        <v>290524.2962747623</v>
       </c>
       <c r="D6" t="n">
-        <v>321210.7571414501</v>
+        <v>321210.7571414499</v>
       </c>
       <c r="E6" t="n">
-        <v>162387.6678910484</v>
+        <v>162337.338341647</v>
       </c>
       <c r="F6" t="n">
-        <v>378116.5841715621</v>
+        <v>378066.2546221602</v>
       </c>
       <c r="G6" t="n">
-        <v>378116.5841715619</v>
+        <v>378066.2546221603</v>
       </c>
       <c r="H6" t="n">
-        <v>378116.5841715617</v>
+        <v>378066.2546221604</v>
       </c>
       <c r="I6" t="n">
-        <v>378116.5841715617</v>
+        <v>378066.2546221604</v>
       </c>
       <c r="J6" t="n">
-        <v>242774.5547024082</v>
+        <v>242724.2251530064</v>
       </c>
       <c r="K6" t="n">
-        <v>353670.8099104523</v>
+        <v>353620.480361051</v>
       </c>
       <c r="L6" t="n">
-        <v>378116.5841715619</v>
+        <v>378066.2546221605</v>
       </c>
       <c r="M6" t="n">
-        <v>217758.133670879</v>
+        <v>217707.8041214774</v>
       </c>
       <c r="N6" t="n">
-        <v>378116.5841715619</v>
+        <v>378066.2546221605</v>
       </c>
       <c r="O6" t="n">
-        <v>360911.1636863057</v>
+        <v>360730.5830936567</v>
       </c>
       <c r="P6" t="n">
-        <v>360911.1636863057</v>
+        <v>360730.5830936568</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J2" t="n">
         <v>29.498941726338</v>
@@ -26715,13 +26715,13 @@
         <v>29.498941726338</v>
       </c>
       <c r="L2" t="n">
+        <v>29.498941726338</v>
+      </c>
+      <c r="M2" t="n">
+        <v>29.49894172633805</v>
+      </c>
+      <c r="N2" t="n">
         <v>29.49894172633799</v>
-      </c>
-      <c r="M2" t="n">
-        <v>29.49894172633803</v>
-      </c>
-      <c r="N2" t="n">
-        <v>29.49894172633803</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037737</v>
+        <v>427.079834003775</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037737</v>
+        <v>427.079834003775</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625183</v>
+        <v>94.98373636625058</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037737</v>
+        <v>427.079834003775</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625183</v>
+        <v>94.98373636625058</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037737</v>
+        <v>427.079834003775</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625183</v>
+        <v>94.98373636625058</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27387,7 +27387,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>229.3648487663135</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>253.0481148261998</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>157.0384723532531</v>
+        <v>13.37348282784561</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>86.99084849031792</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>54.72202312680978</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>146.1473268010586</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>295.2970888447077</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>87.99013316094199</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>51.66342477832717</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>220.1620625474623</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27915,13 +27915,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>203.1574540822548</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>129.1276841407388</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -28076,7 +28076,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>133.7253627786146</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C20" t="n">
-        <v>29.4989417263368</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633708</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633719</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633697</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="26">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633674</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="41">
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>44.45271698861424</v>
+        <v>427.079834003775</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>427.079834003775</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>427.0798340037737</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>427.0798340037737</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>427.0798340037737</v>
+        <v>214.7795495098103</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>427.0798340037737</v>
+        <v>427.079834003775</v>
       </c>
       <c r="L3" t="n">
-        <v>56.44583597939545</v>
+        <v>215.0636209504577</v>
       </c>
       <c r="M3" t="n">
-        <v>427.0798340037737</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>427.079834003775</v>
       </c>
       <c r="O3" t="n">
-        <v>427.0798340037737</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>427.079834003775</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>117.7337452574859</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>14.48459394538821</v>
+      </c>
+      <c r="O6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
@@ -35038,7 +35038,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>176.5650354103358</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
         <v>522.0635703700256</v>
@@ -35190,7 +35190,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>10.70163254908674</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35412,7 +35412,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>423.670551254687</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
@@ -35576,19 +35576,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N13" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P13" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>70.29230409914815</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,7 +35740,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>70.29230409914821</v>
       </c>
       <c r="P15" t="n">
         <v>567.3796893823536</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
@@ -35813,19 +35813,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M16" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N16" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P16" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35898,13 +35898,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P17" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M18" t="n">
-        <v>714.3660512531817</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
@@ -36050,19 +36050,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M19" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N19" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P19" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>121.3646874378037</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
@@ -36287,19 +36287,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M22" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N22" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P22" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
         <v>543.5954556656965</v>
@@ -36381,7 +36381,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
-        <v>91.08941569106823</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>29.85810036629282</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K25" t="n">
         <v>185.6124040720329</v>
@@ -36524,19 +36524,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M25" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N25" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P25" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
         <v>851.4920007015825</v>
@@ -36688,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P27" t="n">
-        <v>474.7429345933427</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>234.0618456603421</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>372.0220958020416</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N35" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O35" t="n">
         <v>650.1321781990958</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>405.4769987570326</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,7 +37399,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K37" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L37" t="n">
         <v>292.0212652415507</v>
@@ -37484,7 +37484,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O38" t="n">
         <v>650.1321781990958</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>70.29230409914815</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K40" t="n">
         <v>185.6124040720329</v>
@@ -37709,19 +37709,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M40" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N40" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O40" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P40" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>90.37376681451964</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N45" t="n">
-        <v>435.3350991233255</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
